--- a/_Flow/0100_MainControl/doc/MainControl.xlsx
+++ b/_Flow/0100_MainControl/doc/MainControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356C0654-E0DD-422B-A583-D662E94A17B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A345C5B-4DFB-4902-B47B-8106AFCDAC4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>thumbnail</t>
   </si>
@@ -296,9 +296,6 @@
 </t>
   </si>
   <si>
-    <t>base_isready()</t>
-  </si>
-  <si>
     <t>S_APP_INIT_START</t>
   </si>
   <si>
@@ -357,59 +354,7 @@
     <t>100010</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/13 16:22:30
-; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
-psggfile=@@@
-MainControl.psgg
-@@@
-xlsfile=@@@
-MainControl.xlsx
-@@@
-guid=@@@
-0350716e-e381-4303-9f2b-a5a0791766de
-@@@
-bitmap_width=5000
-bitmap_height=2000
-c_statec_cmt=1
-c_thumbnail=1
-c_contents=1
-force_display_outpin=0
-last_action=@@@
-Moved a state
-@@@
-target_pathdir=@@@
-/
-@@@
-state_location_list=@@@
-@@@
-fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":133,"y":506}},{"Key":"S_BASE_INIT","Value":{"x":414,"y":164}},{"Key":"S_WAIT_BASE_READY","Value":{"x":229,"y":169}},{"Key":"S_APP_INIT_START","Value":{"x":34,"y":168}},{"Key":"S_EVENT_PROC","Value":{"x":357,"y":510}},{"Key":"S_0001","Value":{"x":673,"y":184}},{"Key":"S_READY_ALL","Value":{"x":611,"y":173}}]}]
-@@@
-linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
-@@@
-use_external_command=0
-external_command=@@@
-@@@
-source_editor=@@@
-"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
-@@@
-label_show=0
-label_text=@@@
-test
-@@@
-option_delete_thisstring=0
-option_delete_br_string=0
-option_delete_bracket_string=1
-font_name=@@@
-MS UI Gothic
-@@@
-font_size=11
-state_width=140
-state_height=20
-comment_block_height=45
-line_space=0
-</t>
+    <t>// base_isready()</t>
   </si>
   <si>
     <t xml:space="preserve">[setting]
@@ -482,7 +427,64 @@
 Wrote 2018.7.7
 @@@
 </t>
-    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>base_update();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 10:40:38
+; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
+psggfile=@@@
+MainControl.psgg
+@@@
+xlsfile=@@@
+MainControl.xlsx
+@@@
+guid=@@@
+0350716e-e381-4303-9f2b-a5a0791766de
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":133,"y":506}},{"Key":"S_BASE_INIT","Value":{"x":414,"y":164}},{"Key":"S_WAIT_BASE_READY","Value":{"x":217,"y":168}},{"Key":"S_APP_INIT_START","Value":{"x":34,"y":168}},{"Key":"S_EVENT_PROC","Value":{"x":357,"y":510}},{"Key":"S_READY_ALL","Value":{"x":611,"y":173}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=0
+</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1229,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>4</v>
@@ -1265,19 +1267,19 @@
         <v>30</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="37.5">
@@ -1304,19 +1306,19 @@
         <v>31</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="18.75" customHeight="1">
@@ -1328,26 +1330,26 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>38</v>
@@ -1386,13 +1388,13 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="26"/>
     </row>
@@ -1422,14 +1424,16 @@
       <c r="D8" s="23"/>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1">
@@ -1458,7 +1462,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>37</v>
@@ -1478,7 +1482,9 @@
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -1533,7 +1539,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -1552,7 +1558,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -1595,10 +1601,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>25</v>
@@ -1629,19 +1635,19 @@
         <v>33</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1667,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1675,13 +1681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481BB4B7-EA6B-439F-9263-85AC4EBEE7CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/_Flow/0100_MainControl/doc/MainControl.xlsx
+++ b/_Flow/0100_MainControl/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A345C5B-4DFB-4902-B47B-8106AFCDAC4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C619432-1BB5-4035-A4BE-4D8E1855804F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,22 +289,6 @@
     <t>base_init_done()</t>
   </si>
   <si>
-    <t>S_WAIT_BASE_READY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASEの準備待ち
-</t>
-  </si>
-  <si>
-    <t>S_APP_INIT_START</t>
-  </si>
-  <si>
-    <t>アプリ側初期化開始</t>
-  </si>
-  <si>
-    <t>app_init_start();</t>
-  </si>
-  <si>
     <t>100008</t>
   </si>
   <si>
@@ -352,9 +336,6 @@
   </si>
   <si>
     <t>100010</t>
-  </si>
-  <si>
-    <t>// base_isready()</t>
   </si>
   <si>
     <t xml:space="preserve">[setting]
@@ -432,7 +413,25 @@
     <t>base_update();</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 10:40:38
+    <t>S_APP_INIT</t>
+  </si>
+  <si>
+    <t>S_APP_PREBASE_INIT</t>
+  </si>
+  <si>
+    <t>アプリ側初期化</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>app_prebase_init();</t>
+  </si>
+  <si>
+    <t>BASEより先に初期化するＡＰＰ用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 11:16:06
 ; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
 psggfile=@@@
 MainControl.psgg
@@ -458,7 +457,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":133,"y":506}},{"Key":"S_BASE_INIT","Value":{"x":414,"y":164}},{"Key":"S_WAIT_BASE_READY","Value":{"x":217,"y":168}},{"Key":"S_APP_INIT_START","Value":{"x":34,"y":168}},{"Key":"S_EVENT_PROC","Value":{"x":357,"y":510}},{"Key":"S_READY_ALL","Value":{"x":611,"y":173}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":170,"y":552}},{"Key":"S_BASE_INIT","Value":{"x":231,"y":172}},{"Key":"S_WAIT_BASE_READY","Value":{"x":217,"y":168}},{"Key":"S_APP_INIT_START","Value":{"x":34,"y":168}},{"Key":"S_EVENT_PROC","Value":{"x":393,"y":558}},{"Key":"S_READY_ALL","Value":{"x":611,"y":173}},{"Key":"S_APP_PREBASE_INIT","Value":{"x":34,"y":168}},{"Key":"S_0001","Value":{"x":530,"y":453}},{"Key":"S_APP_INIT","Value":{"x":424,"y":172}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1231,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>4</v>
@@ -1258,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>34</v>
@@ -1267,19 +1266,19 @@
         <v>30</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="37.5">
@@ -1297,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>35</v>
@@ -1306,19 +1305,19 @@
         <v>31</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="18.75" customHeight="1">
@@ -1330,29 +1329,29 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M4" s="22"/>
     </row>
@@ -1388,13 +1387,13 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M6" s="26"/>
     </row>
@@ -1425,7 +1424,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -1433,7 +1432,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1">
@@ -1462,7 +1461,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>37</v>
@@ -1483,7 +1482,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -1539,7 +1538,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -1558,7 +1557,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -1601,10 +1600,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>25</v>
@@ -1626,7 +1625,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>29</v>
@@ -1635,19 +1634,19 @@
         <v>33</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1686,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/_Flow/0100_MainControl/doc/MainControl.xlsx
+++ b/_Flow/0100_MainControl/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C619432-1BB5-4035-A4BE-4D8E1855804F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EE3A2-D088-4952-B6EF-1BF2FEEFDCAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>thumbnail</t>
   </si>
@@ -431,7 +431,19 @@
     <t>BASEより先に初期化するＡＰＰ用</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 11:16:06
+    <t>S_GOTO_APPSCENE</t>
+  </si>
+  <si>
+    <t>Appシーンへ移動</t>
+  </si>
+  <si>
+    <t>appscene_go();</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 16:49:14
 ; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
 psggfile=@@@
 MainControl.psgg
@@ -457,7 +469,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":170,"y":552}},{"Key":"S_BASE_INIT","Value":{"x":231,"y":172}},{"Key":"S_WAIT_BASE_READY","Value":{"x":217,"y":168}},{"Key":"S_APP_INIT_START","Value":{"x":34,"y":168}},{"Key":"S_EVENT_PROC","Value":{"x":393,"y":558}},{"Key":"S_READY_ALL","Value":{"x":611,"y":173}},{"Key":"S_APP_PREBASE_INIT","Value":{"x":34,"y":168}},{"Key":"S_0001","Value":{"x":530,"y":453}},{"Key":"S_APP_INIT","Value":{"x":424,"y":172}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":9,"y":25}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":476,"y":566}},{"Key":"S_BASE_INIT","Value":{"x":362,"y":309}},{"Key":"S_EVENT_PROC","Value":{"x":685,"y":564}},{"Key":"S_READY_ALL","Value":{"x":824,"y":311}},{"Key":"S_APP_PREBASE_INIT","Value":{"x":167,"y":312}},{"Key":"S_APP_INIT","Value":{"x":580,"y":313}},{"Key":"S_0001","Value":{"x":219,"y":28}},{"Key":"S_GOTO_APPSCENE","Value":{"x":219,"y":28}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1230,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>44</v>
@@ -1269,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>44</v>
@@ -1308,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>44</v>
@@ -1329,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
@@ -1345,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>44</v>
@@ -1387,7 +1399,7 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>44</v>
@@ -1600,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>44</v>
@@ -1637,7 +1649,7 @@
         <v>47</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>44</v>
@@ -1666,7 +1678,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/_Flow/0100_MainControl/doc/MainControl.xlsx
+++ b/_Flow/0100_MainControl/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EE3A2-D088-4952-B6EF-1BF2FEEFDCAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371226BF-776C-440B-87E5-A6C791BCE9A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>thumbnail</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>UI開始</t>
-  </si>
-  <si>
-    <t>ui_start();</t>
   </si>
   <si>
     <t>100006</t>
@@ -443,7 +440,20 @@
     <t>100012</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 16:49:14
+    <t>S_UI_START1</t>
+  </si>
+  <si>
+    <t>ui_start("dbg_uitest_01");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui_start("dbg_scene_change");
+</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/15 9:43:31
 ; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
 psggfile=@@@
 MainControl.psgg
@@ -461,7 +471,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Edited a state.
+Changed an arrow direction
 @@@
 target_pathdir=@@@
 /
@@ -469,7 +479,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":9,"y":25}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":476,"y":566}},{"Key":"S_BASE_INIT","Value":{"x":362,"y":309}},{"Key":"S_EVENT_PROC","Value":{"x":685,"y":564}},{"Key":"S_READY_ALL","Value":{"x":824,"y":311}},{"Key":"S_APP_PREBASE_INIT","Value":{"x":167,"y":312}},{"Key":"S_APP_INIT","Value":{"x":580,"y":313}},{"Key":"S_0001","Value":{"x":219,"y":28}},{"Key":"S_GOTO_APPSCENE","Value":{"x":219,"y":28}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":9,"y":25}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_UI_START","Value":{"x":544,"y":494}},{"Key":"S_BASE_INIT","Value":{"x":362,"y":309}},{"Key":"S_EVENT_PROC","Value":{"x":851,"y":720}},{"Key":"S_READY_ALL","Value":{"x":153,"y":616}},{"Key":"S_APP_PREBASE_INIT","Value":{"x":167,"y":312}},{"Key":"S_APP_INIT","Value":{"x":580,"y":313}},{"Key":"S_GOTO_APPSCENE","Value":{"x":219,"y":28}},{"Key":"S_UI_START1","Value":{"x":549,"y":682}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1245,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>4</v>
@@ -1269,28 +1279,28 @@
         <v>8</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="37.5">
@@ -1308,28 +1318,28 @@
         <v>12</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="18.75" customHeight="1">
@@ -1341,29 +1351,29 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="22"/>
     </row>
@@ -1392,20 +1402,20 @@
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="26"/>
     </row>
@@ -1436,7 +1446,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -1444,7 +1454,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1">
@@ -1473,10 +1483,10 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -1494,7 +1504,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -1550,7 +1560,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -1569,7 +1579,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -1615,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>25</v>
@@ -1637,28 +1647,28 @@
         <v>28</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
